--- a/Diseño/Resumen_Hrs_Telemática.xlsx
+++ b/Diseño/Resumen_Hrs_Telemática.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B9DCEA-736F-4F35-8DB9-289271E58036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BD09E8-89C7-4744-A6E6-78A875D6635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="PA" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PA!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PA!$B$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>OLMOS OLALDE VICTOR HUGO</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>hrsAcad</t>
+  </si>
+  <si>
+    <t>hrsDiseño_PA</t>
+  </si>
+  <si>
+    <t>hrsRedes_Pa</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -599,9 +605,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,10 +912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,6 +923,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1255,7 +1264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1318,11 +1327,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
@@ -1339,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1485,15 +1494,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D28">
+      <c r="J27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" s="21">
         <f>SUM(D2:D27)</f>
         <v>682</v>
       </c>
@@ -1505,12 +1520,19 @@
         <f>SUM(F2:F27)</f>
         <v>799</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="21">
         <v>120</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="21">
         <f>D28-H28</f>
         <v>562</v>
+      </c>
+      <c r="J28" s="21">
+        <v>454</v>
+      </c>
+      <c r="K28" s="21">
+        <f>I28-J28</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1543,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,11 +1555,10 @@
     <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
@@ -1551,13 +1572,10 @@
         <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -1570,12 +1588,11 @@
       <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="21">
+      <c r="E2" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -1588,12 +1605,11 @@
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="21">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -1606,12 +1622,11 @@
       <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="21">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -1624,12 +1639,11 @@
       <c r="D5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="21">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -1642,12 +1656,11 @@
       <c r="D6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="21">
+      <c r="E6" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -1660,12 +1673,11 @@
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="21">
+      <c r="E7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -1678,12 +1690,11 @@
       <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="21">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>20</v>
       </c>
@@ -1696,12 +1707,11 @@
       <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="21">
+      <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>23</v>
       </c>
@@ -1714,12 +1724,11 @@
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="21">
+      <c r="E10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>25</v>
       </c>
@@ -1732,12 +1741,11 @@
       <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="21">
+      <c r="E11" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>28</v>
       </c>
@@ -1750,12 +1758,11 @@
       <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="21">
+      <c r="E12" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>37</v>
       </c>
@@ -1768,21 +1775,17 @@
       <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="21">
+      <c r="E13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="22">
-        <f>SUM(F2:F13)</f>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="20">
+        <f>SUM(E2:E13)</f>
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E7">
-    <sortCondition ref="E3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1792,8 +1795,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2635,11 +2638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
-      <sortCondition ref="B1:B34"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:H32" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Diseño/Resumen_Hrs_Telemática.xlsx
+++ b/Diseño/Resumen_Hrs_Telemática.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BD09E8-89C7-4744-A6E6-78A875D6635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27917A-7B33-4945-865F-0928372A17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataGrupos2025_2" sheetId="3" r:id="rId1"/>
     <sheet name="PTC" sheetId="5" r:id="rId2"/>
-    <sheet name="PA" sheetId="6" r:id="rId3"/>
+    <sheet name="PA (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="PA" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PA!$B$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PA!$B$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PA (2)'!$B$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="99">
   <si>
     <t>OLMOS OLALDE VICTOR HUGO</t>
   </si>
@@ -318,6 +320,18 @@
   </si>
   <si>
     <t>hrsRedes_Pa</t>
+  </si>
+  <si>
+    <t>SANTIAGO SALAZAR  FAUSTINO</t>
+  </si>
+  <si>
+    <t>AD/RT/TICS</t>
+  </si>
+  <si>
+    <t>ALCARAZ SEVILLA CESAR JAVIER</t>
+  </si>
+  <si>
+    <t>RT/SALUD</t>
   </si>
 </sst>
 </file>
@@ -560,9 +574,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -575,16 +587,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -602,11 +612,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,11 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,21 +1508,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <f>SUM(D2:D27)</f>
         <v>682</v>
       </c>
@@ -1520,29 +1534,33 @@
         <f>SUM(F2:F27)</f>
         <v>799</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>120</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <f>D28-H28</f>
         <v>562</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>454</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <f>I28-J28</f>
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1780,23 +1798,27 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <f>SUM(E2:E13)</f>
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Hoja3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848128DF-C59F-4247-BF43-96C294CA335E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,27 +1835,27 @@
       <c r="A1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1848,7 +1870,7 @@
       <c r="E2" s="14">
         <v>13</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="15">
         <f>E2+F2</f>
         <v>13</v>
@@ -1858,7 +1880,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1885,7 +1907,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1910,7 +1932,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1935,7 +1957,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1960,7 +1982,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1985,7 +2007,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2010,8 +2032,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" s="20">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
@@ -2035,8 +2057,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
+      <c r="A10" s="19">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -2060,8 +2082,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11</v>
+      <c r="A11" s="20">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>72</v>
@@ -2085,8 +2107,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
+      <c r="A12" s="19">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -2110,8 +2132,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
+      <c r="A13" s="20">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -2135,8 +2157,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" s="19">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -2163,8 +2185,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
+      <c r="A15" s="20">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -2190,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16</v>
+      <c r="A16" s="19">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
@@ -2215,8 +2237,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
+      <c r="A17" s="20">
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -2240,8 +2262,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>18</v>
+      <c r="A18" s="19">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -2265,8 +2287,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
+      <c r="A19" s="20">
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -2290,8 +2312,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20</v>
+      <c r="A20" s="19">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -2317,8 +2339,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>21</v>
+      <c r="A21" s="20">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -2344,8 +2366,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>22</v>
+      <c r="A22" s="19">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -2369,8 +2391,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>23</v>
+      <c r="A23" s="20">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -2394,8 +2416,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>24</v>
+      <c r="A24" s="19">
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -2419,8 +2441,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>25</v>
+      <c r="A25" s="20">
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -2444,8 +2466,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>26</v>
+      <c r="A26" s="19">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -2469,8 +2491,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
+      <c r="A27" s="20">
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -2494,8 +2516,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>28</v>
+      <c r="A28" s="19">
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -2519,8 +2541,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>29</v>
+      <c r="A29" s="20">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -2544,8 +2566,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>30</v>
+      <c r="A30" s="19">
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -2569,8 +2591,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>31</v>
+      <c r="A31" s="20">
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>53</v>
@@ -2596,8 +2618,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
+      <c r="A32" s="19">
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -2639,6 +2661,915 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:H32" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="23">
+        <v>25</v>
+      </c>
+      <c r="E2" s="23">
+        <v>25</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="15">
+        <f>E2+F2</f>
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15">
+        <f>E3+F3</f>
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G34" si="0">E4+F4</f>
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10">
+        <f>39-E15</f>
+        <v>31</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4">
+        <v>39</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4">
+        <v>38</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>9</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4">
+        <v>17</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4">
+        <v>19</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7">
+        <v>24</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="8">
+        <f>SUM(D2:D34)</f>
+        <v>366</v>
+      </c>
+      <c r="E35" s="9">
+        <f>SUM(E2:E34)</f>
+        <v>591</v>
+      </c>
+      <c r="G35" s="1">
+        <f>SUM(G2:G34)</f>
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:H34" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>